--- a/current_sensor/current_sensor_calibration.xlsx
+++ b/current_sensor/current_sensor_calibration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Desktop\Coding\Arduino\cyber_physical_system_and_sensor\current_sensor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642BCD51-77C7-410A-BE1A-98D4319F6D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C9A0AA-76B7-429E-AA8B-379D08E9BA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B679C0F0-EFB7-4F40-82C6-ABCFDFFBF348}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>Sensor</t>
   </si>
@@ -59,12 +59,48 @@
   <si>
     <t>มีการ Calibration Polynomial Calibration (Second Order)</t>
   </si>
+  <si>
+    <t xml:space="preserve">sensor </t>
+  </si>
+  <si>
+    <t>power supply</t>
+  </si>
+  <si>
+    <t>ERROR [%]</t>
+  </si>
+  <si>
+    <t>Multimeter [A]</t>
+  </si>
+  <si>
+    <t>Sensor [A]</t>
+  </si>
+  <si>
+    <t>ช่วงที่ ERROR น้อยอย่างมีนัยสำคัญ</t>
+  </si>
+  <si>
+    <t>Collect Data without Calibrated Current Sensor</t>
+  </si>
+  <si>
+    <t>Collect Data without Calibrated Current Sensor (Temz)</t>
+  </si>
+  <si>
+    <t>Collect Data without Calibrated Current Sensor and Shift Offset (Temz)</t>
+  </si>
+  <si>
+    <t>Uncalibrated Polynomial Current Sensor</t>
+  </si>
+  <si>
+    <t>ค่ามีความ ERROR อย่างมีนัยสำคัญ</t>
+  </si>
+  <si>
+    <t>Calibrated Polynomial Current Sensor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,8 +125,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,8 +163,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,14 +190,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,7 +972,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Linear Calibration'!$B$17</c:f>
+              <c:f>'Linear Calibration'!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -927,7 +1051,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear Calibration'!$A$18:$A$27</c:f>
+              <c:f>'Linear Calibration'!$M$3:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -966,7 +1090,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear Calibration'!$B$18:$B$27</c:f>
+              <c:f>'Linear Calibration'!$N$3:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1355,6 +1479,1073 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>กราฟความสัมพันธ์ระหว่างกระแสจาก</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Sensor </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" baseline="0"/>
+              <a:t>และ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Multimeter </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Linear Calibration'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multimeter [A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.31436887894263305"/>
+                  <c:y val="4.7075474238324151E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Linear Calibration'!$A$19:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Linear Calibration'!$B$19:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.226</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68DC-486F-B511-E18D9F3F1CC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2041693568"/>
+        <c:axId val="2041697408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2041693568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current from</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Multimeter [A]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2041697408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2041697408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> from Sensor [A]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2041693568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23982896603409973"/>
+                  <c:y val="8.5311298532517496E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Linear Calibration'!$A$49:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Linear Calibration'!$B$49:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1695-4005-8CC4-43AD36E3E4FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1186648272"/>
+        <c:axId val="1186643952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1186648272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1186643952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1186643952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1186648272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="th-TH" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
@@ -1463,7 +2654,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Polynomial Calibration'!$B$2</c:f>
+              <c:f>'Polynomial Calibration'!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1549,7 +2740,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Polynomial Calibration'!$A$3:$A$12</c:f>
+              <c:f>'Polynomial Calibration'!$A$19:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1588,7 +2779,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Polynomial Calibration'!$B$3:$B$12</c:f>
+              <c:f>'Polynomial Calibration'!$B$19:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1943,7 +3134,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2085,7 +3276,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Polynomial Calibration'!$B$19</c:f>
+              <c:f>'Polynomial Calibration'!$N$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2171,7 +3362,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Polynomial Calibration'!$A$20:$A$29</c:f>
+              <c:f>'Polynomial Calibration'!$M$19:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2210,7 +3401,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Polynomial Calibration'!$B$20:$B$29</c:f>
+              <c:f>'Polynomial Calibration'!$N$19:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2565,6 +3756,1534 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Polynomial Calibration'!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>power supply</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13800393700787403"/>
+                  <c:y val="-4.678295421405658E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Polynomial Calibration'!$A$33:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Polynomial Calibration'!$B$33:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0590000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0229999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65EC-4977-8B4C-B45C3B3C2D03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1016315440"/>
+        <c:axId val="1016317840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1016315440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016317840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1016317840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016315440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>กราฟความสัมพันธ์ระหว่างกระแสของ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Sensor </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" baseline="0"/>
+              <a:t>และ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Multimeter </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" baseline="0"/>
+              <a:t>ก่อนมีการปรับเทียบ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.18357852143482065"/>
+                  <c:y val="3.8967629046369204E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Polynomial Calibration'!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Polynomial Calibration'!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0AC-4274-93F0-823E55232EFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2038869440"/>
+        <c:axId val="2038866560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2038869440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current From Multimeter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [A]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2038866560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2038866560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current from Sensor [A]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2038869440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>กราฟความสัมพันธ์ระหว่างกระแสของ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Sensor </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" baseline="0"/>
+              <a:t>และ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Multimeter </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" baseline="0"/>
+              <a:t>หลังมีการปรับเทียบ</a:t>
+            </a:r>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Polynomial Calibration'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multimeter [A]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16694575678040244"/>
+                  <c:y val="6.3854622338874303E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Polynomial Calibration'!$M$3:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Polynomial Calibration'!$N$3:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98FC-4686-8FC3-EE2988CC96C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1143428191"/>
+        <c:axId val="1143428671"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1143428191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current from Multimeter</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [A]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143428671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1143428671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> from Sensor [A]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143428191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2725,6 +5444,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4274,6 +7193,2586 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4794,15 +10293,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>249848</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>21248</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>116497</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4829,16 +10328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>680163</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>29020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>448632</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4863,6 +10362,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8972</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>663648</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>701</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA71A8B-218B-1FCB-5CD6-63874CF665CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>20322</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>13836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>20323</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>25660</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C11897-0176-3BE1-F7DA-DAD4BFCC475B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4871,15 +10442,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>179510</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>280621</xdr:rowOff>
+      <xdr:colOff>213127</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>151667</xdr:rowOff>
+      <xdr:colOff>652742</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>39608</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4906,16 +10477,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>204422</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>111369</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>246189</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>661622</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123092</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10663</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>186253</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4935,6 +10506,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198610</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>14423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638225</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>36</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7637708-F9A0-8B42-82B3-BC9BFADE5FAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3476</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>477601</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15689</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BA6D15-B942-C164-50F1-84D0DE384371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1738</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>206497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>475090</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4095</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F078054-9CD6-E1DD-DC0B-56AB71DA60B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5260,290 +10939,990 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E97A73-91B8-46D0-8CEC-9EC327680029}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A54" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="M2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>0.15</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>0.5</v>
       </c>
-      <c r="D3" t="str">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="str">
         <f t="shared" ref="D3:D12" si="0">_xlfn.CONCAT(ABS(ROUND((((B3-A3)/B3)*100),2)),"%")</f>
         <v>70%</v>
       </c>
+      <c r="M3" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6" t="str">
+        <f t="shared" ref="P3:P12" si="1">_xlfn.CONCAT(ABS(ROUND((((N3-M3)/N3)*100),2)),"%")</f>
+        <v>12%</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>0.6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" t="str">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>40%</v>
       </c>
+      <c r="M4" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12%</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>1.5</v>
       </c>
-      <c r="D5" t="str">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>26.67%</v>
       </c>
+      <c r="M5" s="6">
+        <v>1.23</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>18%</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>1.51</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" t="str">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>24.5%</v>
       </c>
+      <c r="M6" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="N6" s="6">
+        <v>2</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>20%</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>2.0499999999999998</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>2.5</v>
       </c>
-      <c r="D7" t="str">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>18%</v>
       </c>
+      <c r="M7" s="6">
+        <v>1.97</v>
+      </c>
+      <c r="N7" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>21.2%</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>2.71</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="D8" t="str">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>9.67%</v>
       </c>
+      <c r="M8" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="N8" s="6">
+        <v>3</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>19%</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>3.45</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>3.5</v>
       </c>
-      <c r="D9" t="str">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1.43%</v>
       </c>
+      <c r="M9" s="6">
+        <v>2.79</v>
+      </c>
+      <c r="N9" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>20.29%</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>4.21</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>4</v>
       </c>
-      <c r="D10" t="str">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>5.25%</v>
       </c>
+      <c r="M10" s="6">
+        <v>3.25</v>
+      </c>
+      <c r="N10" s="6">
+        <v>4</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>18.75%</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>5.05</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>4.5</v>
       </c>
-      <c r="D11" t="str">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12.22%</v>
       </c>
+      <c r="M11" s="6">
+        <v>4.05</v>
+      </c>
+      <c r="N11" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>10%</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>5.96</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="D12" t="str">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>19.2%</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="B18">
-        <v>0.5</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" ref="D18:D27" si="1">_xlfn.CONCAT(ABS(ROUND((((B18-A18)/B18)*100),2)),"%")</f>
-        <v>12%</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0.88</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>12%</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>1.23</v>
-      </c>
-      <c r="B20">
-        <v>1.5</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>18%</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1.6</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v>20%</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1.97</v>
-      </c>
-      <c r="B22">
-        <v>2.5</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v>21.2%</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>19%</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2.79</v>
-      </c>
-      <c r="B24">
-        <v>3.5</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v>20.29%</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>3.25</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v>18.75%</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>4.05</v>
-      </c>
-      <c r="B26">
-        <v>4.5</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="1"/>
-        <v>10%</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="M12" s="6">
         <v>4.42</v>
       </c>
-      <c r="B27">
+      <c r="N12" s="6">
         <v>5</v>
       </c>
-      <c r="D27" t="str">
+      <c r="O12" s="6"/>
+      <c r="P12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>11.6%</v>
       </c>
     </row>
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B19-A19)/B19)*100),2)),"%")</f>
+        <v>56.2%</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B20-A20)/B20)*100),2)),"%")</f>
+        <v>12.18%</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B21-A21)/B21)*100),2)),"%")</f>
+        <v>7.94%</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B22-A22)/B22)*100),2)),"%")</f>
+        <v>10.33%</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B23-A23)/B23)*100),2)),"%")</f>
+        <v>7.08%</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B24-A24)/B24)*100),2)),"%")</f>
+        <v>8.9%</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1.028</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B25-A25)/B25)*100),2)),"%")</f>
+        <v>7.59%</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>1.17</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1.226</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B26-A26)/B26)*100),2)),"%")</f>
+        <v>4.57%</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>1.37</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1.32</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B27-A27)/B27)*100),2)),"%")</f>
+        <v>3.79%</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>1.45</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1.42</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B28-A28)/B28)*100),2)),"%")</f>
+        <v>2.11%</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>1.4830000000000001</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1.52</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B29-A29)/B29)*100),2)),"%")</f>
+        <v>2.43%</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>1.58</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B30-A30)/B30)*100),2)),"%")</f>
+        <v>0.51%</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>1.71</v>
+      </c>
+      <c r="B31" s="9">
+        <v>1.68</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B31-A31)/B31)*100),2)),"%")</f>
+        <v>1.79%</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>1.77</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1.77</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B32-A32)/B32)*100),2)),"%")</f>
+        <v>0%</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>1.88</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1.87</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B33-A33)/B33)*100),2)),"%")</f>
+        <v>0.53%</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>2.02</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1.9510000000000001</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B34-A34)/B34)*100),2)),"%")</f>
+        <v>3.54%</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="B35" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B35-A35)/B35)*100),2)),"%")</f>
+        <v>7.62%</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>2.39</v>
+      </c>
+      <c r="B36" s="6">
+        <v>2.21</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B36-A36)/B36)*100),2)),"%")</f>
+        <v>8.14%</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>2.56</v>
+      </c>
+      <c r="B37" s="6">
+        <v>2.34</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B37-A37)/B37)*100),2)),"%")</f>
+        <v>9.4%</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>2.74</v>
+      </c>
+      <c r="B38" s="6">
+        <v>3.12</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B38-A38)/B38)*100),2)),"%")</f>
+        <v>12.18%</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="B39" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((A39-B39)/A39)*100),2)),"%")</f>
+        <v>17.02%</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="B40" s="6">
+        <v>3.33</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((A40-B40)/A40)*100),2)),"%")</f>
+        <v>14.83%</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>3.96</v>
+      </c>
+      <c r="B41" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((A41-B41)/A41)*100),2)),"%")</f>
+        <v>19.19%</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>4.16</v>
+      </c>
+      <c r="B42" s="6">
+        <v>3.37</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((A42-B42)/A42)*100),2)),"%")</f>
+        <v>18.99%</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>4.18</v>
+      </c>
+      <c r="B43" s="6">
+        <v>3.49</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((A43-B43)/A43)*100),2)),"%")</f>
+        <v>16.51%</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="str">
+        <f>_xlfn.CONCAT("จำนวนครั้งในการเก็บตัวอย่าง = ",COUNT(A19:A43)," ครั้ง")</f>
+        <v>จำนวนครั้งในการเก็บตัวอย่าง = 25 ครั้ง</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="6">
+        <f>ROUND((((A49-B49)/A49)*100),2)</f>
+        <v>-12.36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="B50" s="6">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6">
+        <f>ROUND((((A50-B50)/A50)*100),2)</f>
+        <v>-11.11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>1.39</v>
+      </c>
+      <c r="B51" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C51" s="6">
+        <f>ROUND((((A51-B51)/A51)*100),2)</f>
+        <v>-7.91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>1.85</v>
+      </c>
+      <c r="B52" s="6">
+        <v>2</v>
+      </c>
+      <c r="C52" s="6">
+        <f>ROUND((((A52-B52)/A52)*100),2)</f>
+        <v>-8.11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>2.31</v>
+      </c>
+      <c r="B53" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C53" s="6">
+        <f>ROUND((((A53-B53)/A53)*100),2)</f>
+        <v>-8.23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>2.78</v>
+      </c>
+      <c r="B54" s="6">
+        <v>3</v>
+      </c>
+      <c r="C54" s="6">
+        <f>ROUND((((A54-B54)/A54)*100),2)</f>
+        <v>-7.91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>3.08</v>
+      </c>
+      <c r="B55" s="10">
+        <v>3.33</v>
+      </c>
+      <c r="C55" s="6">
+        <f>ROUND((((A55-B55)/A55)*100),2)</f>
+        <v>-8.1199999999999992</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>3.24</v>
+      </c>
+      <c r="B56" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="C56" s="6">
+        <f>ROUND((((A56-B56)/A56)*100),2)</f>
+        <v>-8.02</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>3.75</v>
+      </c>
+      <c r="B57" s="6">
+        <v>4</v>
+      </c>
+      <c r="C57" s="6">
+        <f>ROUND((((A57-B57)/A57)*100),2)</f>
+        <v>-6.67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="B58" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="C58" s="6">
+        <f>ROUND((((A58-B58)/A58)*100),2)</f>
+        <v>-8.43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>4.63</v>
+      </c>
+      <c r="B59" s="6">
+        <v>5</v>
+      </c>
+      <c r="C59" s="6">
+        <f>ROUND((((A59-B59)/A59)*100),2)</f>
+        <v>-7.99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="B66" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C66" s="6">
+        <f>ROUND((((A66-B66)/A66)*100),2)</f>
+        <v>-7.99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="B67" s="6">
+        <v>1</v>
+      </c>
+      <c r="C67" s="5">
+        <f>ROUND((((A67-B67)/A67)*100),2)</f>
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B68" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C68" s="5">
+        <f>ROUND((((A68-B68)/A68)*100),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>2</v>
+      </c>
+      <c r="B69" s="6">
+        <v>2</v>
+      </c>
+      <c r="C69" s="5">
+        <f>ROUND((((A69-B69)/A69)*100),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="B70" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C70" s="5">
+        <f>ROUND((((A70-B70)/A70)*100),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>3.03</v>
+      </c>
+      <c r="B71" s="6">
+        <v>3</v>
+      </c>
+      <c r="C71" s="5">
+        <f>ROUND((((A71-B71)/A71)*100),2)</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>3.43</v>
+      </c>
+      <c r="B72" s="10">
+        <v>3.38</v>
+      </c>
+      <c r="C72" s="5">
+        <f>ROUND((((A72-B72)/A72)*100),2)</f>
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>3.54</v>
+      </c>
+      <c r="B73" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="C73" s="5">
+        <f>ROUND((((A73-B73)/A73)*100),2)</f>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="B74" s="6">
+        <v>4</v>
+      </c>
+      <c r="C74" s="5">
+        <f>ROUND((((A74-B74)/A74)*100),2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>4.53</v>
+      </c>
+      <c r="B75" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="C75" s="5">
+        <f>ROUND((((A75-B75)/A75)*100),2)</f>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>5.01</v>
+      </c>
+      <c r="B76" s="6">
+        <v>5</v>
+      </c>
+      <c r="C76" s="5">
+        <f>ROUND((((A76-B76)/A76)*100),2)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f>(1.0734*A59)+A62</f>
+        <v>4.9698419999999999</v>
+      </c>
+      <c r="B77" s="6">
+        <v>5</v>
+      </c>
+      <c r="C77" s="5">
+        <f>ROUND((((A77-B77)/A77)*100),2)</f>
+        <v>-0.61</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:D59">
+    <sortCondition ref="A49:A59"/>
+  </sortState>
+  <mergeCells count="7">
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A47:E47"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5551,290 +11930,734 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C150CF-E4A4-4918-B093-E6074AA0A097}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="M1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="6">
+        <f>((B3-A3)/B3)*100</f>
+        <v>9.9999999999999982</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="6">
+        <f>ROUND(((N3-M3)/N3)*100,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:C12" si="0">((B4-A4)/B4)*100</f>
+        <v>2.0000000000000018</v>
+      </c>
+      <c r="M4" s="12">
+        <v>1.04</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" ref="O4:O12" si="1">ROUND(((N4-M4)/N4)*100,2)</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1.51</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.66666666666666718</v>
+      </c>
+      <c r="M5" s="13">
+        <v>1.53</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>-5.0000000000000044</v>
+      </c>
+      <c r="M6" s="13">
+        <v>2.02</v>
+      </c>
+      <c r="N6" s="6">
+        <v>2</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>-8.0000000000000071</v>
+      </c>
+      <c r="M7" s="13">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="N7" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>3.55</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>-18.333333333333325</v>
+      </c>
+      <c r="M8" s="13">
+        <v>3.01</v>
+      </c>
+      <c r="N8" s="6">
+        <v>3</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>-23.142857142857132</v>
+      </c>
+      <c r="M9" s="13">
+        <v>3.49</v>
+      </c>
+      <c r="N9" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>5.09</v>
+      </c>
+      <c r="B10" s="6">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>-27.249999999999996</v>
+      </c>
+      <c r="M10" s="13">
+        <v>4.04</v>
+      </c>
+      <c r="N10" s="6">
+        <v>4</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>6.11</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>-35.777777777777786</v>
+      </c>
+      <c r="M11" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N11" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="1"/>
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>6.11</v>
+      </c>
+      <c r="B12" s="7">
         <v>5</v>
       </c>
+      <c r="C12" s="7">
+        <f t="shared" si="0"/>
+        <v>-22.200000000000006</v>
+      </c>
+      <c r="M12" s="14" t="str">
+        <f>_xlfn.CONCAT("จำนวนครั้งในการเก็บตัวอย่าง : ",COUNT(O3:O11)," ครั้ง")</f>
+        <v>จำนวนครั้งในการเก็บตัวอย่าง : 9 ครั้ง</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M13" s="3" t="str">
+        <f>_xlfn.CONCAT("ค่าเฉลี่ยมีค่าเท่ากับ : ",ROUND(SUM(O3:O11)/COUNT(O3:O11),2),"%")</f>
+        <v>ค่าเฉลี่ยมีค่าเท่ากับ : -0.69%</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P14" s="15"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="17" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="M17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="M18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>0.15</v>
       </c>
-      <c r="B3">
+      <c r="B19" s="6">
         <v>0.5</v>
       </c>
-      <c r="D3" t="str">
-        <f>_xlfn.CONCAT(ABS(ROUND((((B3-A3)/B3)*100),2)),"%")</f>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((B19-A19)/B19)*100),2)),"%")</f>
         <v>70%</v>
       </c>
+      <c r="M19" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((N19-M19)/N19)*100),2)),"%")</f>
+        <v>4%</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>0.6</v>
       </c>
-      <c r="B4">
+      <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:D12" si="0">_xlfn.CONCAT(ABS(ROUND((((B4-A4)/B4)*100),2)),"%")</f>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="str">
+        <f t="shared" ref="D20:D28" si="2">_xlfn.CONCAT(ABS(ROUND((((B20-A20)/B20)*100),2)),"%")</f>
         <v>40%</v>
       </c>
+      <c r="M20" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((N20-M20)/N20)*100),2)),"%")</f>
+        <v>8%</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B5">
+      <c r="B21" s="6">
         <v>1.5</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>26.67%</v>
       </c>
+      <c r="M21" s="6">
+        <v>1.46</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((N21-M21)/N21)*100),2)),"%")</f>
+        <v>2.67%</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>1.51</v>
       </c>
-      <c r="B6">
+      <c r="B22" s="6">
         <v>2</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>24.5%</v>
       </c>
+      <c r="M22" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="N22" s="6">
+        <v>2</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((N22-M22)/N22)*100),2)),"%")</f>
+        <v>6%</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>2.0499999999999998</v>
       </c>
-      <c r="B7">
+      <c r="B23" s="6">
         <v>2.5</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>18%</v>
       </c>
+      <c r="M23" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="N23" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((N23-M23)/N23)*100),2)),"%")</f>
+        <v>2.8%</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>2.71</v>
       </c>
-      <c r="B8">
+      <c r="B24" s="6">
         <v>3</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>9.67%</v>
       </c>
+      <c r="M24" s="6">
+        <v>2.93</v>
+      </c>
+      <c r="N24" s="6">
+        <v>3</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((N24-M24)/N24)*100),2)),"%")</f>
+        <v>2.33%</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>3.45</v>
       </c>
-      <c r="B9">
+      <c r="B25" s="6">
         <v>3.5</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>1.43%</v>
       </c>
+      <c r="M25" s="6">
+        <v>3.44</v>
+      </c>
+      <c r="N25" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((N25-M25)/N25)*100),2)),"%")</f>
+        <v>1.71%</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>4.21</v>
       </c>
-      <c r="B10">
+      <c r="B26" s="6">
         <v>4</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>5.25%</v>
       </c>
+      <c r="M26" s="6">
+        <v>3.86</v>
+      </c>
+      <c r="N26" s="6">
+        <v>4</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((N26-M26)/N26)*100),2)),"%")</f>
+        <v>3.5%</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>5.05</v>
       </c>
-      <c r="B11">
+      <c r="B27" s="6">
         <v>4.5</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>12.22%</v>
       </c>
+      <c r="M27" s="6">
+        <v>4.22</v>
+      </c>
+      <c r="N27" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((N27-M27)/N27)*100),2)),"%")</f>
+        <v>6.22%</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>5.96</v>
       </c>
-      <c r="B12">
+      <c r="B28" s="6">
         <v>5</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>19.2%</v>
       </c>
+      <c r="M28" s="6">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="N28" s="6">
+        <v>5</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6" t="str">
+        <f>_xlfn.CONCAT(ABS(ROUND((((N28-M28)/N28)*100),2)),"%")</f>
+        <v>8.8%</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="str">
+        <f t="shared" ref="D33:D42" si="3">_xlfn.CONCAT(ABS(ROUND((((B33-A33)/B33)*100),2)),"%")</f>
+        <v>0.22%</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>0.52</v>
-      </c>
-      <c r="B20">
-        <v>0.5</v>
-      </c>
-      <c r="D20" t="str">
-        <f>_xlfn.CONCAT(ABS(ROUND((((B20-A20)/B20)*100),2)),"%")</f>
-        <v>4%</v>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>1.01</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>4.55%</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>0.92</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" ref="D21:D29" si="1">_xlfn.CONCAT(ABS(ROUND((((B21-A21)/B21)*100),2)),"%")</f>
-        <v>8%</v>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>1.66</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1.667</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>0.42%</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1.46</v>
-      </c>
-      <c r="B22">
-        <v>1.5</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v>2.67%</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>2.74</v>
+      </c>
+      <c r="B36" s="6">
+        <v>2.3610000000000002</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>16.05%</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1.88</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>6%</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>3.84</v>
+      </c>
+      <c r="B37" s="6">
+        <v>3.2679999999999998</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>17.5%</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="B24">
-        <v>2.5</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v>2.8%</v>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>4.66</v>
+      </c>
+      <c r="B38" s="6">
+        <v>3.5910000000000002</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>29.77%</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2.93</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v>2.33%</v>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="B39" s="6">
+        <v>3.92</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>30.36%</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>3.44</v>
-      </c>
-      <c r="B26">
-        <v>3.5</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="1"/>
-        <v>1.71%</v>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>5.33</v>
+      </c>
+      <c r="B40" s="6">
+        <v>4.0590000000000002</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>31.31%</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>3.86</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="1"/>
-        <v>3.5%</v>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="B41" s="6">
+        <v>4.4939999999999998</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>35.74%</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>4.22</v>
-      </c>
-      <c r="B28">
-        <v>4.5</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="1"/>
-        <v>6.22%</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v>8.8%</v>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>6.23</v>
+      </c>
+      <c r="B42" s="6">
+        <v>5.0229999999999997</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>24.03%</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M17:U17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
